--- a/biology/Zoologie/Hominini/Hominini.xlsx
+++ b/biology/Zoologie/Hominini/Hominini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hominini forment une tribu de singes de la famille des hominidés, constituée de la sous-tribu des Hominina (incluant notamment les genres Homo, Australopithecus et Paranthropus) et de la sous-tribu des Panina (incluant les chimpanzés et bonobos).
 </t>
@@ -511,11 +523,13 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Chimpanzés et les Bonobos sont génétiquement plus proches des Homo sapiens que des Gorilles, malgré les apparences extérieures, et sont donc regroupés avec les humains dans la tribu des Hominini.
-Phylogénie des genres actuels d'hominidés, d'après Shoshani et al. (1996)[1] et Springer et al. (2012)[2] :
-Selon une étude de 2016, basée sur l'analyse génétique de 10 espèces de singes, dont plusieurs espèces d'hominidés, le taux de mutation génétique à prendre en compte pour le calibrage de l'horloge moléculaire ne doit pas être calculé par unité de temps mais par nombre de générations. Or les hominidés ont des générations moyennes sensiblement plus longues que les singes à queue, ce qui conduit à ralentir le rythme des mutations génétiques par unité de temps[3].
+Phylogénie des genres actuels d'hominidés, d'après Shoshani et al. (1996) et Springer et al. (2012) :
+Selon une étude de 2016, basée sur l'analyse génétique de 10 espèces de singes, dont plusieurs espèces d'hominidés, le taux de mutation génétique à prendre en compte pour le calibrage de l'horloge moléculaire ne doit pas être calculé par unité de temps mais par nombre de générations. Or les hominidés ont des générations moyennes sensiblement plus longues que les singes à queue, ce qui conduit à ralentir le rythme des mutations génétiques par unité de temps.
 Cette étude propose donc des dates de divergence nettement plus élevées qu'estimé auparavant :
 les Hominini auraient divergé des Gorillini il y a environ 10,8 Ma (entre 9,4 et 12,2 Ma) ;
 les Hominina auraient divergé des Panina il y a environ 7,9 Ma (entre 6,5 et 9,3 Ma).</t>
@@ -546,15 +560,86 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>On ne connait pas encore d'espèces fossiles basales de la tribu des Hominini, ni d'espèces fossiles de la sous-tribu des Panina. Les plus anciens fossiles connus de chimpanzés sont trois dents trouvées près du lac Baringo, au Kenya, et datées en 2005 d'environ 500 000 ans[4],[5].
-Panina
-Genre Pan
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ne connait pas encore d'espèces fossiles basales de la tribu des Hominini, ni d'espèces fossiles de la sous-tribu des Panina. Les plus anciens fossiles connus de chimpanzés sont trois dents trouvées près du lac Baringo, au Kenya, et datées en 2005 d'environ 500 000 ans,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hominini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hominini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Panina</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Genre Pan
 Pan troglodytes (chimpanzé)
-Pan paniscus (bonobo)
-Hominina
-Sahelanthropus tchadensis : 7 millions d'années
+Pan paniscus (bonobo)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hominini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hominini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hominina</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sahelanthropus tchadensis : 7 millions d'années
 Orrorin tugenensis : 5,9 millions d'années
 Ardipithecus
 Ardipithecus kadabba : 5,8 à 5,2 millions d'années
